--- a/docs/Sprint4_Backlog.xlsx
+++ b/docs/Sprint4_Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>User story</t>
   </si>
@@ -69,9 +69,6 @@
     <t>As a User I can Navigate through a Main Menu</t>
   </si>
   <si>
-    <t>As an Admin I can Register Entity Employees</t>
-  </si>
-  <si>
     <t>As a Lawyer/Reviewer I can view the workspace</t>
   </si>
   <si>
@@ -94,6 +91,15 @@
   </si>
   <si>
     <t>As a User I can Navigate through a footer</t>
+  </si>
+  <si>
+    <t>As an Investor I can Pay for my Form (Backend)</t>
+  </si>
+  <si>
+    <t>As an Investor I can know the cost of my form (Backend)</t>
+  </si>
+  <si>
+    <t>Heroku Deployment</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,16 +517,16 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -531,16 +537,16 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -574,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,7 +597,7 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -614,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,13 +640,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,16 +657,16 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,16 +677,56 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Sprint4_Backlog.xlsx
+++ b/docs/Sprint4_Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>User story</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>As an Investor I can know the cost of my form (Backend)</t>
-  </si>
-  <si>
-    <t>Heroku Deployment</t>
   </si>
 </sst>
 </file>
@@ -455,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +674,7 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -706,26 +703,6 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
         <v>11</v>
       </c>
     </row>
